--- a/2024-08-08_Miles-Bailey_RR.xlsx
+++ b/2024-08-08_Miles-Bailey_RR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8c183bc34e1939c/Projects/Hack-a-mission/Ready - Scrubbed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{601DAE4F-9985-42A7-8B91-6741B094F47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0A62CCC-835C-4761-9C38-1F533E769664}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{601DAE4F-9985-42A7-8B91-6741B094F47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{553EEEBC-1BB6-4121-A2F5-9ED5B776558C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="762" xr2:uid="{908AE02C-7830-4EE3-9F47-FD686BE0A464}"/>
   </bookViews>
@@ -755,8 +755,8 @@
   <dimension ref="A4:AU973"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <pane ySplit="10" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2233,7 +2233,7 @@
         <v>3389.52</v>
       </c>
       <c r="H53" s="13">
-        <v>0</v>
+        <v>3166.3</v>
       </c>
       <c r="K53" s="13"/>
       <c r="L53" s="13">
